--- a/data/trans_orig/P1405-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>3900</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11951</v>
+        <v>11401</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01323146372176733</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00308562093228881</v>
+        <v>0.003027668722024455</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04054771021076917</v>
+        <v>0.03868203525450286</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -763,19 +763,19 @@
         <v>8263</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18067</v>
+        <v>17607</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02876528304447481</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01122906232496219</v>
+        <v>0.01123119067596117</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0628970075856865</v>
+        <v>0.06129495269667214</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -784,19 +784,19 @@
         <v>12162</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5294</v>
+        <v>6217</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22214</v>
+        <v>23171</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02089837443523846</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009097066791583367</v>
+        <v>0.01068310098368012</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03816982109162685</v>
+        <v>0.03981385358513684</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>290838</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>282787</v>
+        <v>283337</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>293829</v>
+        <v>293846</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9867685362782327</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9594522897892305</v>
+        <v>0.9613179647454967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9969143790677112</v>
+        <v>0.9969723312779755</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>249</v>
@@ -834,19 +834,19 @@
         <v>278982</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>269178</v>
+        <v>269638</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284020</v>
+        <v>284019</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9712347169555252</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9371029924143135</v>
+        <v>0.9387050473033278</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9887709376750378</v>
+        <v>0.9887688093240388</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>528</v>
@@ -855,19 +855,19 @@
         <v>569821</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>559769</v>
+        <v>558812</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>576689</v>
+        <v>575766</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9791016255647615</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9618301789083732</v>
+        <v>0.9601861464148637</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9909029332084168</v>
+        <v>0.9893168990163199</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>5269</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2082</v>
+        <v>1082</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12451</v>
+        <v>11570</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01042339882923789</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004118204550198387</v>
+        <v>0.002140431641678636</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02462942828780398</v>
+        <v>0.02288629317469762</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -980,19 +980,19 @@
         <v>8749</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4162</v>
+        <v>4253</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16689</v>
+        <v>17514</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01670465363992142</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007946224842991271</v>
+        <v>0.008120540757210635</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03186386206450267</v>
+        <v>0.03343937302414082</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -1001,19 +1001,19 @@
         <v>14019</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7555</v>
+        <v>7857</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22877</v>
+        <v>22824</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01361967415066462</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007340421842846522</v>
+        <v>0.007633173974897724</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02222596603852111</v>
+        <v>0.02217455107182871</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>500258</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>493076</v>
+        <v>493957</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>503445</v>
+        <v>504445</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9895766011707621</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9753705717121961</v>
+        <v>0.9771137068253023</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9958817954498016</v>
+        <v>0.9978595683583213</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>472</v>
@@ -1051,19 +1051,19 @@
         <v>515016</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>507076</v>
+        <v>506251</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>519603</v>
+        <v>519512</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9832953463600785</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9681361379354971</v>
+        <v>0.966560626975859</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9920537751570087</v>
+        <v>0.9918794592427894</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>939</v>
@@ -1072,19 +1072,19 @@
         <v>1015273</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1006415</v>
+        <v>1006468</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1021737</v>
+        <v>1021435</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9863803258493353</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9777740339614786</v>
+        <v>0.9778254489281711</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9926595781571536</v>
+        <v>0.992366826025102</v>
       </c>
     </row>
     <row r="9">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6371</v>
+        <v>6561</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00573923278662176</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01965985731979824</v>
+        <v>0.02024814859284771</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1197,19 +1197,19 @@
         <v>6283</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2997</v>
+        <v>2980</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13458</v>
+        <v>13728</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01842392530169646</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008786976525309628</v>
+        <v>0.008737552095620686</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03946254815697735</v>
+        <v>0.04025588170279725</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1218,19 +1218,19 @@
         <v>8143</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4022</v>
+        <v>3893</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16292</v>
+        <v>15392</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01224345024302499</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006047194088252051</v>
+        <v>0.005853744572165232</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02449652151908513</v>
+        <v>0.02314344491568029</v>
       </c>
     </row>
     <row r="11">
@@ -1247,7 +1247,7 @@
         <v>322186</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>317675</v>
+        <v>317485</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>324046</v>
@@ -1256,7 +1256,7 @@
         <v>0.9942607672133782</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9803401426802016</v>
+        <v>0.9797518514071523</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1268,19 +1268,19 @@
         <v>334737</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327562</v>
+        <v>327292</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338023</v>
+        <v>338040</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9815760746983035</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9605374518430229</v>
+        <v>0.9597441182972026</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9912130234746904</v>
+        <v>0.9912624479043793</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>628</v>
@@ -1289,19 +1289,19 @@
         <v>656923</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>648774</v>
+        <v>649674</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>661044</v>
+        <v>661173</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.987756549756975</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9755034784809147</v>
+        <v>0.9768565550843197</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9939528059117479</v>
+        <v>0.9941462554278347</v>
       </c>
     </row>
     <row r="12">
@@ -1406,19 +1406,19 @@
         <v>9852</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4997</v>
+        <v>4791</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18700</v>
+        <v>17439</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02532985743583143</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01284785441302089</v>
+        <v>0.01231690040882383</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04807856314699923</v>
+        <v>0.04483616671425279</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1427,19 +1427,19 @@
         <v>9852</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4541</v>
+        <v>4792</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18103</v>
+        <v>18251</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01291341683263427</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005952162636803394</v>
+        <v>0.006280587083809568</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02372757444135602</v>
+        <v>0.02392180129117214</v>
       </c>
     </row>
     <row r="14">
@@ -1469,19 +1469,19 @@
         <v>379099</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>370251</v>
+        <v>371512</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>383954</v>
+        <v>384160</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9746701425641686</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9519214368530008</v>
+        <v>0.9551638332857472</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9871521455869789</v>
+        <v>0.9876830995911762</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>706</v>
@@ -1490,19 +1490,19 @@
         <v>753081</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>744830</v>
+        <v>744682</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>758392</v>
+        <v>758141</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9870865831673657</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9762724255586439</v>
+        <v>0.9760781987088278</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9940478373631966</v>
+        <v>0.9937194129161905</v>
       </c>
     </row>
     <row r="15">
@@ -1594,19 +1594,19 @@
         <v>3287</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8521</v>
+        <v>8929</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01545846708548634</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00463163625508167</v>
+        <v>0.004644379437012285</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04007652728042042</v>
+        <v>0.04199660274330248</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1615,19 +1615,19 @@
         <v>9413</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4353</v>
+        <v>4094</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19224</v>
+        <v>18154</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04286471805057757</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01982290928835748</v>
+        <v>0.01864276162929816</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08754493185994028</v>
+        <v>0.08266971255874304</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1636,19 +1636,19 @@
         <v>12699</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6902</v>
+        <v>6820</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22644</v>
+        <v>22224</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02938266928289282</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01596955759018099</v>
+        <v>0.01577881700650195</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0523902035168753</v>
+        <v>0.05141987417633229</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>209331</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>204097</v>
+        <v>203689</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>211633</v>
+        <v>211631</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9845415329145136</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9599234727195796</v>
+        <v>0.9580033972566969</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9953683637449183</v>
+        <v>0.9953556205629877</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>204</v>
@@ -1686,19 +1686,19 @@
         <v>210178</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>200367</v>
+        <v>201437</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215238</v>
+        <v>215497</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9571352819494224</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9124550681400604</v>
+        <v>0.9173302874412574</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9801770907116426</v>
+        <v>0.981357238370702</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>397</v>
@@ -1707,19 +1707,19 @@
         <v>419510</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>409565</v>
+        <v>409985</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>425307</v>
+        <v>425389</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9706173307171072</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9476097964831247</v>
+        <v>0.9485801258236678</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9840304424098191</v>
+        <v>0.9842211829934981</v>
       </c>
     </row>
     <row r="18">
@@ -1811,19 +1811,19 @@
         <v>3100</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9433</v>
+        <v>8883</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01131312552917347</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003527653517497849</v>
+        <v>0.003566408812975705</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03443104551759107</v>
+        <v>0.03242078180141842</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1832,19 +1832,19 @@
         <v>3918</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>965</v>
+        <v>1005</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7990</v>
+        <v>9909</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01408896832956324</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003471723111143874</v>
+        <v>0.003614437672009375</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.028732137235124</v>
+        <v>0.03563022545879493</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1853,19 +1853,19 @@
         <v>7018</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2981</v>
+        <v>3014</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13917</v>
+        <v>14368</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01271139140324406</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005399129488328825</v>
+        <v>0.005459311941476764</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02520831288930499</v>
+        <v>0.02602601538692632</v>
       </c>
     </row>
     <row r="20">
@@ -1882,19 +1882,19 @@
         <v>270881</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>264548</v>
+        <v>265098</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>273014</v>
+        <v>273004</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9886868744708265</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9655689544824088</v>
+        <v>0.9675792181985791</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.996472346482502</v>
+        <v>0.9964335911870242</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>264</v>
@@ -1903,19 +1903,19 @@
         <v>274178</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>270106</v>
+        <v>268187</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277131</v>
+        <v>277091</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9859110316704368</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9712678627648761</v>
+        <v>0.9643697745412052</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9965282768888561</v>
+        <v>0.9963855623279906</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>522</v>
@@ -1924,19 +1924,19 @@
         <v>545059</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>538160</v>
+        <v>537709</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>549096</v>
+        <v>549063</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9872886085967559</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9747916871106952</v>
+        <v>0.9739739846130741</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9946008705116711</v>
+        <v>0.9945406880585232</v>
       </c>
     </row>
     <row r="21">
@@ -2028,19 +2028,19 @@
         <v>8166</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3099</v>
+        <v>3227</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19212</v>
+        <v>17811</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01232081639290898</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004675053911017898</v>
+        <v>0.004868363925846528</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02898615624384578</v>
+        <v>0.02687309259136395</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2049,19 +2049,19 @@
         <v>9833</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4805</v>
+        <v>4186</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18604</v>
+        <v>18637</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01417171086852039</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006925772649667495</v>
+        <v>0.006032384350664841</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02681193411637227</v>
+        <v>0.0268602519971793</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -2070,19 +2070,19 @@
         <v>17999</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9685</v>
+        <v>10072</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28713</v>
+        <v>29193</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01326745490741433</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007138912759042177</v>
+        <v>0.007424504649673033</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02116500533849953</v>
+        <v>0.02151829809226418</v>
       </c>
     </row>
     <row r="23">
@@ -2099,19 +2099,19 @@
         <v>654622</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>643576</v>
+        <v>644977</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>659689</v>
+        <v>659561</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9876791836070911</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9710138437561544</v>
+        <v>0.9731269074086362</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9953249460889821</v>
+        <v>0.9951316360741536</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>627</v>
@@ -2120,19 +2120,19 @@
         <v>684020</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>675249</v>
+        <v>675216</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>689048</v>
+        <v>689667</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9858282891314796</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9731880658836306</v>
+        <v>0.9731397480028209</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9930742273503325</v>
+        <v>0.9939676156493352</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1239</v>
@@ -2141,19 +2141,19 @@
         <v>1338642</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1327928</v>
+        <v>1327448</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1346956</v>
+        <v>1346569</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9867325450925857</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9788349946615005</v>
+        <v>0.9784817019077358</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9928610872409579</v>
+        <v>0.992575495350327</v>
       </c>
     </row>
     <row r="24">
@@ -2245,19 +2245,19 @@
         <v>3184</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8670</v>
+        <v>9039</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004086434660361376</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001305637719548093</v>
+        <v>0.001301623431493303</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01112799368470833</v>
+        <v>0.01160163411464076</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2266,19 +2266,19 @@
         <v>6419</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2153</v>
+        <v>2159</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14934</v>
+        <v>14756</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007814463048308332</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00262091099435765</v>
+        <v>0.002628011416712589</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01818112232454773</v>
+        <v>0.01796475764481622</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -2287,19 +2287,19 @@
         <v>9602</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4306</v>
+        <v>4231</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17923</v>
+        <v>20087</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.005999709531581298</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002690491456021694</v>
+        <v>0.002643633824745443</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01119864740171303</v>
+        <v>0.01255028832834757</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>775914</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>770428</v>
+        <v>770059</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>778081</v>
+        <v>778084</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9959135653396386</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9888720063152916</v>
+        <v>0.9883983658853592</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9986943622804519</v>
+        <v>0.9986983765685067</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>750</v>
@@ -2337,19 +2337,19 @@
         <v>814976</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>806461</v>
+        <v>806639</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>819242</v>
+        <v>819236</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9921855369516916</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9818188776754521</v>
+        <v>0.9820352423551841</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9973790890056423</v>
+        <v>0.9973719885832873</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1464</v>
@@ -2358,19 +2358,19 @@
         <v>1590891</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1582570</v>
+        <v>1580406</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1596187</v>
+        <v>1596262</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9940002904684188</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9888013525982867</v>
+        <v>0.9874497116716521</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9973095085439783</v>
+        <v>0.9973563661752545</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>28765</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18645</v>
+        <v>18743</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41686</v>
+        <v>42817</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008394197453167985</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005441105951424254</v>
+        <v>0.005469459392987229</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01216488790375713</v>
+        <v>0.01249473647692724</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>56</v>
@@ -2483,19 +2483,19 @@
         <v>62730</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>47922</v>
+        <v>47257</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>81921</v>
+        <v>80005</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01765084957858858</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01348430013297895</v>
+        <v>0.0132971126762563</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02305090432236107</v>
+        <v>0.02251166741664101</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>81</v>
@@ -2504,19 +2504,19 @@
         <v>91495</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>72767</v>
+        <v>73711</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>112180</v>
+        <v>112925</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01310681750149702</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01042400065680382</v>
+        <v>0.01055932974668654</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01607000785567564</v>
+        <v>0.01617676215914926</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>3398014</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3385093</v>
+        <v>3383962</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3408134</v>
+        <v>3408036</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9916058025468321</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.987835112096243</v>
+        <v>0.9875052635230729</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9945588940485758</v>
+        <v>0.994530540607013</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3239</v>
@@ -2554,19 +2554,19 @@
         <v>3491186</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3471995</v>
+        <v>3473911</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3505994</v>
+        <v>3506659</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9823491504214115</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.976949095677639</v>
+        <v>0.9774883325833587</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9865156998670211</v>
+        <v>0.9867028873237437</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6423</v>
@@ -2575,19 +2575,19 @@
         <v>6889199</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6868514</v>
+        <v>6867769</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6907927</v>
+        <v>6906983</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.986893182498503</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9839299921443242</v>
+        <v>0.983823237840851</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9895759993431962</v>
+        <v>0.9894406702533135</v>
       </c>
     </row>
     <row r="30">
@@ -2923,19 +2923,19 @@
         <v>5224</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1466</v>
+        <v>1752</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13248</v>
+        <v>13615</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01778220494003109</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004989622866716256</v>
+        <v>0.005964808398402353</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04509889632181854</v>
+        <v>0.04634636572205079</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2944,19 +2944,19 @@
         <v>7247</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3209</v>
+        <v>3184</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15298</v>
+        <v>14336</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02510095097256631</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01111534381837145</v>
+        <v>0.01102958805724807</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0529880004119732</v>
+        <v>0.04965541653630676</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2965,19 +2965,19 @@
         <v>12470</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6425</v>
+        <v>6348</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22687</v>
+        <v>22439</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02140980069236676</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01103143547925007</v>
+        <v>0.01089802083526864</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03895053937130884</v>
+        <v>0.03852408813026997</v>
       </c>
     </row>
     <row r="5">
@@ -2994,19 +2994,19 @@
         <v>288537</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>280513</v>
+        <v>280146</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292295</v>
+        <v>292009</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9822177950599689</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9549011036781815</v>
+        <v>0.9536536342779492</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9950103771332838</v>
+        <v>0.9940351916015976</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>270</v>
@@ -3015,19 +3015,19 @@
         <v>281456</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>273405</v>
+        <v>274367</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>285494</v>
+        <v>285519</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9748990490274337</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9470119995880267</v>
+        <v>0.9503445834636932</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9888846561816285</v>
+        <v>0.9889704119427519</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>532</v>
@@ -3036,19 +3036,19 @@
         <v>569994</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>559777</v>
+        <v>560025</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>576039</v>
+        <v>576116</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9785901993076332</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9610494606286915</v>
+        <v>0.9614759118697301</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.98896856452075</v>
+        <v>0.9891019791647314</v>
       </c>
     </row>
     <row r="6">
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6581</v>
+        <v>6245</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004080258935868026</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01309496963202146</v>
+        <v>0.01242642347079794</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -3161,19 +3161,19 @@
         <v>3885</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>957</v>
+        <v>987</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9632</v>
+        <v>9737</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00742785593311476</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001829919164387987</v>
+        <v>0.001886973485675432</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01841371368996236</v>
+        <v>0.01861397709458383</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -3182,19 +3182,19 @@
         <v>5936</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1965</v>
+        <v>2876</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11795</v>
+        <v>12871</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005787525981213735</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001915899931562217</v>
+        <v>0.002804058963763241</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01150003821955872</v>
+        <v>0.01254852125970567</v>
       </c>
     </row>
     <row r="8">
@@ -3211,7 +3211,7 @@
         <v>500524</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>495994</v>
+        <v>496330</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>502575</v>
@@ -3220,7 +3220,7 @@
         <v>0.9959197410641319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9869050303679779</v>
+        <v>0.9875735765292023</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3232,19 +3232,19 @@
         <v>519199</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>513452</v>
+        <v>513347</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>522127</v>
+        <v>522097</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9925721440668852</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9815862863100376</v>
+        <v>0.9813860229054159</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.998170080835612</v>
+        <v>0.9981130265143247</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>953</v>
@@ -3253,19 +3253,19 @@
         <v>1019723</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1013864</v>
+        <v>1012788</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1023694</v>
+        <v>1022783</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9942124740187863</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9884999617804413</v>
+        <v>0.9874514787402944</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9980841000684378</v>
+        <v>0.9971959410362368</v>
       </c>
     </row>
     <row r="9">
@@ -3357,19 +3357,19 @@
         <v>2858</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6861</v>
+        <v>7730</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008970155371292022</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0</v>
+        <v>0.002709362540441654</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02153850724554023</v>
+        <v>0.02426357378024794</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7355</v>
+        <v>6877</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00594610701468331</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0218686234194986</v>
+        <v>0.02044814790388496</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -3399,19 +3399,19 @@
         <v>4857</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1764</v>
+        <v>1834</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10864</v>
+        <v>10658</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00741716245139813</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002693065778287553</v>
+        <v>0.002800898170995133</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01659005793184978</v>
+        <v>0.01627488444334624</v>
       </c>
     </row>
     <row r="11">
@@ -3428,19 +3428,19 @@
         <v>315707</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>311704</v>
+        <v>310835</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>318565</v>
+        <v>317702</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.991029844628708</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9784614927544596</v>
+        <v>0.9757364262197523</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1</v>
+        <v>0.9972906374595584</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>330</v>
@@ -3449,7 +3449,7 @@
         <v>334309</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>328954</v>
+        <v>329432</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>336309</v>
@@ -3458,7 +3458,7 @@
         <v>0.9940538929853167</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9781313765805011</v>
+        <v>0.9795518520961151</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3470,19 +3470,19 @@
         <v>650017</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644010</v>
+        <v>644216</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653110</v>
+        <v>653040</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9925828375486019</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9834099420681502</v>
+        <v>0.9837251155566538</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9973069342217125</v>
+        <v>0.9971991018290048</v>
       </c>
     </row>
     <row r="12">
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6718</v>
+        <v>5374</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002629151502770381</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01815866090165932</v>
+        <v>0.01452579126482463</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -3595,19 +3595,19 @@
         <v>11505</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5524</v>
+        <v>6179</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20684</v>
+        <v>22988</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02970682384469706</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01426453209367579</v>
+        <v>0.01595421578798531</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05340786748239705</v>
+        <v>0.05935683965415482</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -3616,19 +3616,19 @@
         <v>12478</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6429</v>
+        <v>6089</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21198</v>
+        <v>21581</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01647763451294941</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00849020843068159</v>
+        <v>0.008041586693020594</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02799291691709072</v>
+        <v>0.02849952052177035</v>
       </c>
     </row>
     <row r="14">
@@ -3645,7 +3645,7 @@
         <v>368991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>363246</v>
+        <v>364590</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>369964</v>
@@ -3654,7 +3654,7 @@
         <v>0.9973708484972296</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9818413390983405</v>
+        <v>0.9854742087351758</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3666,19 +3666,19 @@
         <v>375778</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>366599</v>
+        <v>364295</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>381759</v>
+        <v>381104</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.970293176155303</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9465921325176034</v>
+        <v>0.9406431603458451</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9857354679063245</v>
+        <v>0.9840457842120147</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>701</v>
@@ -3687,19 +3687,19 @@
         <v>744769</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>736049</v>
+        <v>735666</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>750818</v>
+        <v>751158</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9835223654870506</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9720070830829093</v>
+        <v>0.9715004794782299</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9915097915693185</v>
+        <v>0.9919584133069794</v>
       </c>
     </row>
     <row r="15">
@@ -3804,19 +3804,19 @@
         <v>4189</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10399</v>
+        <v>10507</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01916290709768726</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004802712045540097</v>
+        <v>0.00477974918920139</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04757440545711623</v>
+        <v>0.04806885378269611</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -3825,19 +3825,19 @@
         <v>4189</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10359</v>
+        <v>10372</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009745659435681855</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002431370605427936</v>
+        <v>0.002408166392267983</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02410164760101351</v>
+        <v>0.02413160818427255</v>
       </c>
     </row>
     <row r="17">
@@ -3867,19 +3867,19 @@
         <v>214398</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>208188</v>
+        <v>208080</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217537</v>
+        <v>217542</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9808370929023127</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9524255945428834</v>
+        <v>0.9519311462173038</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9951972879544598</v>
+        <v>0.9952202508107986</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>431</v>
@@ -3888,19 +3888,19 @@
         <v>425619</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>419449</v>
+        <v>419436</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>428763</v>
+        <v>428773</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9902543405643182</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9758983523989886</v>
+        <v>0.9758683918157275</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.997568629394572</v>
+        <v>0.997591833607732</v>
       </c>
     </row>
     <row r="18">
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9719</v>
+        <v>9420</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009904349721425332</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0369363575180366</v>
+        <v>0.03579942190427332</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -4013,19 +4013,19 @@
         <v>4765</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1266</v>
+        <v>1281</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12064</v>
+        <v>11712</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01744823232309462</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004636011279615503</v>
+        <v>0.004690323409656741</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04417287350813841</v>
+        <v>0.04288476852688723</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -4034,19 +4034,19 @@
         <v>7371</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2893</v>
+        <v>3130</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15986</v>
+        <v>16788</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01374657556426706</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005394082074167918</v>
+        <v>0.005836279933104587</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02981070427373601</v>
+        <v>0.03130728744628245</v>
       </c>
     </row>
     <row r="20">
@@ -4063,7 +4063,7 @@
         <v>260517</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253404</v>
+        <v>253703</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>263123</v>
@@ -4072,7 +4072,7 @@
         <v>0.9900956502785747</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9630636424819634</v>
+        <v>0.9642005780957267</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4084,19 +4084,19 @@
         <v>268350</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>261051</v>
+        <v>261403</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271849</v>
+        <v>271834</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9825517676769053</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9558271264918616</v>
+        <v>0.9571152314731129</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9953639887203845</v>
+        <v>0.9953096765903433</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>516</v>
@@ -4105,19 +4105,19 @@
         <v>528867</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>520252</v>
+        <v>519450</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>533345</v>
+        <v>533108</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9862534244357329</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9701892957262639</v>
+        <v>0.9686927125537176</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9946059179258321</v>
+        <v>0.9941637200668954</v>
       </c>
     </row>
     <row r="21">
@@ -4209,19 +4209,19 @@
         <v>4178</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9773</v>
+        <v>9663</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006362843622361191</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001667857616012803</v>
+        <v>0.00166957657688586</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01488471621012407</v>
+        <v>0.01471829850326321</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -4230,19 +4230,19 @@
         <v>12018</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6392</v>
+        <v>5748</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20387</v>
+        <v>19787</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01738465289029697</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009246064988996017</v>
+        <v>0.008315111524636798</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0294912874241867</v>
+        <v>0.0286233402309594</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -4251,19 +4251,19 @@
         <v>16195</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9668</v>
+        <v>9244</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26417</v>
+        <v>25865</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0120157718631081</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007172614279328168</v>
+        <v>0.006857960041757474</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01959967180217044</v>
+        <v>0.01918982240828168</v>
       </c>
     </row>
     <row r="23">
@@ -4280,19 +4280,19 @@
         <v>652380</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>646785</v>
+        <v>646895</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>655463</v>
+        <v>655462</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9936371563776388</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9851152837898766</v>
+        <v>0.9852817014967364</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9983321423839872</v>
+        <v>0.9983304234231142</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>635</v>
@@ -4301,19 +4301,19 @@
         <v>679276</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>670907</v>
+        <v>671507</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>684902</v>
+        <v>685546</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.982615347109703</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9705087125758134</v>
+        <v>0.9713766597690406</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9907539350110039</v>
+        <v>0.9916848884753632</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1211</v>
@@ -4322,19 +4322,19 @@
         <v>1331657</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1321435</v>
+        <v>1321987</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1338184</v>
+        <v>1338608</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9879842281368919</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9804003281978296</v>
+        <v>0.9808101775917186</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9928273857206719</v>
+        <v>0.9931420399582427</v>
       </c>
     </row>
     <row r="24">
@@ -4426,19 +4426,19 @@
         <v>7516</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2783</v>
+        <v>3166</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16139</v>
+        <v>16412</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009652921995085035</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003574619862070779</v>
+        <v>0.004065986478833357</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02072823660462983</v>
+        <v>0.02107884915113386</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -4447,19 +4447,19 @@
         <v>10123</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5407</v>
+        <v>4503</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19177</v>
+        <v>18991</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01225352178849489</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006544778237037296</v>
+        <v>0.005450906093763046</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02321212787837099</v>
+        <v>0.02298657179095271</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -4468,19 +4468,19 @@
         <v>17639</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9965</v>
+        <v>10311</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27545</v>
+        <v>29925</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01099177835048633</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006209415632358778</v>
+        <v>0.006425552270257595</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01716438116954256</v>
+        <v>0.01864797640157327</v>
       </c>
     </row>
     <row r="26">
@@ -4497,19 +4497,19 @@
         <v>771067</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>762444</v>
+        <v>762171</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>775800</v>
+        <v>775417</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9903470780049149</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.97927176339537</v>
+        <v>0.9789211508488661</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9964253801379291</v>
+        <v>0.9959340135211666</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>746</v>
@@ -4518,19 +4518,19 @@
         <v>816044</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>806990</v>
+        <v>807176</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>820760</v>
+        <v>821664</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9877464782115051</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9767878721216293</v>
+        <v>0.9770134282090449</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9934552217629627</v>
+        <v>0.9945490939062368</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1490</v>
@@ -4539,19 +4539,19 @@
         <v>1587111</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1577205</v>
+        <v>1574825</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1594785</v>
+        <v>1594439</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9890082216495136</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.982835618830457</v>
+        <v>0.9813520235984268</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9937905843676411</v>
+        <v>0.9935744477297425</v>
       </c>
     </row>
     <row r="27">
@@ -4643,19 +4643,19 @@
         <v>25404</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>17168</v>
+        <v>16401</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>40460</v>
+        <v>37849</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007484160799560098</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005057787189995538</v>
+        <v>0.004831916553130595</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0119197634179513</v>
+        <v>0.01115060755382072</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>51</v>
@@ -4664,19 +4664,19 @@
         <v>55732</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>41524</v>
+        <v>43607</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>70868</v>
+        <v>73194</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01572341010108616</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01171504251386044</v>
+        <v>0.01230261987426657</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01999355660025848</v>
+        <v>0.02064989994676948</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>73</v>
@@ -4685,19 +4685,19 @@
         <v>81136</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>64091</v>
+        <v>63945</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>100679</v>
+        <v>103998</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01169295432876829</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00923644287614676</v>
+        <v>0.009215489114871038</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01450939568265995</v>
+        <v>0.01498774779849737</v>
       </c>
     </row>
     <row r="29">
@@ -4714,19 +4714,19 @@
         <v>3368946</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3353890</v>
+        <v>3356501</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3377182</v>
+        <v>3377949</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.99251583920044</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9880802365820486</v>
+        <v>0.9888493924461791</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9949422128100044</v>
+        <v>0.9951680834468694</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3287</v>
@@ -4735,19 +4735,19 @@
         <v>3488810</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3473674</v>
+        <v>3471348</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3503018</v>
+        <v>3500935</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9842765898989139</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9800064433997416</v>
+        <v>0.9793501000532305</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9882849574861396</v>
+        <v>0.9876973801257335</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6496</v>
@@ -4756,19 +4756,19 @@
         <v>6857756</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6838213</v>
+        <v>6834894</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6874801</v>
+        <v>6874947</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9883070456712317</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.98549060431734</v>
+        <v>0.9850122522015023</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9907635571238531</v>
+        <v>0.9907845108851288</v>
       </c>
     </row>
     <row r="30">
